--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st05.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st05.xlsx
@@ -44,7 +44,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Leto, honey drunk, regales Beehunter with tales of her "glorious past."
+    <t xml:space="preserve">Leto, honey drunk, regales Beehunter with tales of her 'glorious past.'
 </t>
   </si>
   <si>

--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st05.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st05.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">There are some things that the other members of the Ursus Student Self-government Group may not know.
+    <t xml:space="preserve">There are some things that the other members of the Ursus Student Self-Governing Group may not know.
 </t>
   </si>
   <si>
